--- a/data/trans_camb/P1401-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1401-Dificultad-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>-1.097510440258564</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.2766073837092844</v>
+        <v>-0.2766073837092847</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.4234669712962076</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4618655159149656</v>
+        <v>-0.5953336989673682</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3192734773345148</v>
+        <v>0.4020759971190457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.160687912400836</v>
+        <v>-2.293926571017626</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.569695459134232</v>
+        <v>-1.547112401749724</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.257696981347167</v>
+        <v>-1.201948469882343</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2847714774292436</v>
+        <v>-0.3287064401272676</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.166354624165407</v>
+        <v>1.016077103078699</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.165594856979284</v>
+        <v>3.283283118290188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.03238218129864334</v>
+        <v>0.03102129253793562</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9949635717758378</v>
+        <v>1.04327965223631</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2554939498520593</v>
+        <v>0.2119083711222172</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.512081405489493</v>
+        <v>1.500667174505135</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>-0.5005263741601373</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.12614849549979</v>
+        <v>-0.1261484954997901</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2824087314415758</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4974366171031486</v>
+        <v>-0.5187971799435426</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1652012056809798</v>
+        <v>0.1432343195627575</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7676607143279799</v>
+        <v>-0.7629210394378135</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.525236363559785</v>
+        <v>-0.5356682709312183</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6142907696596686</v>
+        <v>-0.601382953347366</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1719507930070781</v>
+        <v>-0.2158052452097466</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.384676916971102</v>
+        <v>2.527908186942482</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>7.422351592180092</v>
+        <v>8.259654833706623</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02960173674931025</v>
+        <v>0.08743400955361923</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6572935204610028</v>
+        <v>0.7090982220171284</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2722978621930082</v>
+        <v>0.2331893133615152</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.378684260350384</v>
+        <v>1.259565097074429</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-0.3764865657430125</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4401299280087367</v>
+        <v>0.4401299280087371</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.030298984305835</v>
+        <v>-2.166992242408897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5776014636707956</v>
+        <v>-0.6638610229206284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.341356541440898</v>
+        <v>-1.265028118275311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.054889279543312</v>
+        <v>-0.9715490709327902</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.161777565017901</v>
+        <v>-1.30822250728462</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.425622414858441</v>
+        <v>-0.4701856056150619</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.01181977247227295</v>
+        <v>-0.01822822137627142</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.89376277399429</v>
+        <v>1.75022105331023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.378108546202892</v>
+        <v>1.575118685410288</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.450152993712857</v>
+        <v>1.398020703285643</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5853470997495814</v>
+        <v>0.5096049760837977</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.310824965113098</v>
+        <v>1.216653398918614</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.1988776542960649</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2324970281346568</v>
+        <v>0.2324970281346569</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8883624994434817</v>
+        <v>-0.8737721615102426</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2829053781772143</v>
+        <v>-0.3100687055046128</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4660989814934984</v>
+        <v>-0.4621167663298701</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3784664537224465</v>
+        <v>-0.3295480190005034</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4995766779427036</v>
+        <v>-0.5331925729569645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1842088054868111</v>
+        <v>-0.2059140718531452</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1868982838507107</v>
+        <v>0.1395206815473536</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.3036682745178</v>
+        <v>1.975040639851157</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8789223062031516</v>
+        <v>1.12038367940271</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.009938370955041</v>
+        <v>0.9117933602383623</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4265377556724019</v>
+        <v>0.37472715103215</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9609810187807748</v>
+        <v>0.8584602418571381</v>
       </c>
     </row>
     <row r="16">
@@ -932,19 +932,19 @@
         <v>-0.3185471496476116</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5402277636412669</v>
+        <v>0.5402277636412666</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.281045965466918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7712996498799242</v>
+        <v>0.7712996498799245</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4561826382749814</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6555200670393854</v>
+        <v>0.6555200670393857</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.448354988239181</v>
+        <v>-1.383844584618151</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4498908534882078</v>
+        <v>-0.5935251498563976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.03119645531617987</v>
+        <v>0.0009441290530140432</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2695307580455366</v>
+        <v>-0.2694466200676754</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3842339793236055</v>
+        <v>-0.3962363423072913</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1016035073481192</v>
+        <v>-0.130217455337198</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7141074693886293</v>
+        <v>0.6859545666729328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.709887263872071</v>
+        <v>1.576440218698734</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.78971960912477</v>
+        <v>2.951720748145048</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.692086756685844</v>
+        <v>1.793590844376094</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.325404337427595</v>
+        <v>1.289258655221686</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.309876889608317</v>
+        <v>1.390323663403801</v>
       </c>
     </row>
     <row r="19">
@@ -1010,19 +1010,19 @@
         <v>-0.2288879691037692</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.3881737312988314</v>
+        <v>0.3881737312988311</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.990346806998655</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.5962737997612384</v>
+        <v>0.5962737997612386</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3397035866560567</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4881433426321402</v>
+        <v>0.4881433426321404</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.728368625529168</v>
+        <v>-0.7607295766872849</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2759415883644036</v>
+        <v>-0.2989275415926836</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08332521466796722</v>
+        <v>-0.1151372271819555</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1512273614325514</v>
+        <v>-0.1824317005381251</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2624099736064721</v>
+        <v>-0.2509326351803632</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05799643139617169</v>
+        <v>-0.09097817147382584</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8483851021102949</v>
+        <v>0.771749460273555</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.041770341291105</v>
+        <v>1.900071019018015</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.821057494808224</v>
+        <v>3.291097977064357</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.287262299119956</v>
+        <v>2.42439665743375</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.3000934554007</v>
+        <v>1.259323995194692</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.396443484534198</v>
+        <v>1.459073433898302</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>0.5553256890812541</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2722919637207399</v>
+        <v>0.2722919637207395</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2419089011138043</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.9247652773340794</v>
+        <v>0.9247652773340798</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.192181911731619</v>
+        <v>-1.309661148186773</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.161226132668864</v>
+        <v>0.2704497343487957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.461504570573956</v>
+        <v>-1.572823785574012</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.475515373835503</v>
+        <v>-1.459368284052395</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8881930310981051</v>
+        <v>-0.9817825529054512</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.1926815155490532</v>
+        <v>-0.1932145864481676</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9472711929807346</v>
+        <v>0.8499651001841533</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.702352041407456</v>
+        <v>2.668941974249456</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.882561556221398</v>
+        <v>2.764536267898731</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.652893418431081</v>
+        <v>1.717575106306319</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.517728854251684</v>
+        <v>1.559679936549105</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.808063740507069</v>
+        <v>1.823668762626</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>0.2420279381040649</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.1186731747466392</v>
+        <v>0.1186731747466391</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1602119299295565</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6124554703501149</v>
+        <v>0.6124554703501152</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8891266421310993</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09055847287137983</v>
+        <v>-0.02279466705134114</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4726376075562788</v>
+        <v>-0.5006654980361257</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4103676474304687</v>
+        <v>-0.414803407856066</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4323505747441608</v>
+        <v>-0.4681656835540667</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09895511396071632</v>
+        <v>-0.1060534797562393</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.604152047263235</v>
+        <v>3.984663707256533</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10.06346313821613</v>
+        <v>10.05866288456637</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.373346370863655</v>
+        <v>2.059164927332157</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.392659983844442</v>
+        <v>1.402147643896181</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.811228946231364</v>
+        <v>1.699941336063984</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.980211072336079</v>
+        <v>2.049962697335477</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7641799202932267</v>
+        <v>-0.7542738264981408</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4118201220477283</v>
+        <v>0.4472131517886984</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6839369135684804</v>
+        <v>-0.6678092694632402</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3334978909183227</v>
+        <v>-0.3661811533315777</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5524426533286791</v>
+        <v>-0.5572445443097108</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2115735475554541</v>
+        <v>0.2272293750046711</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1582268386017563</v>
+        <v>0.197114409282177</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.517893635908201</v>
+        <v>1.627317308431938</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7762666881615314</v>
+        <v>0.801711700767704</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9000202659723912</v>
+        <v>0.8655965934124457</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3295540362613138</v>
+        <v>0.2992488169182496</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.083631671374188</v>
+        <v>1.109969897681844</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5309926647599039</v>
+        <v>-0.5231646587447731</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2666216799029157</v>
+        <v>0.3012393483234916</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2938750482274465</v>
+        <v>-0.3004221175581863</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1390935627097079</v>
+        <v>-0.1523650590283481</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3081697392648802</v>
+        <v>-0.3056815791413719</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1120442141101613</v>
+        <v>0.1147739242962416</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.206749315011748</v>
+        <v>0.2391600631810716</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.726226668852014</v>
+        <v>1.855152068487355</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4789968784603881</v>
+        <v>0.4724151575341108</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5502141049547209</v>
+        <v>0.5462555160954393</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2367246756115921</v>
+        <v>0.2209189417342985</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8122654067100237</v>
+        <v>0.8429596203408145</v>
       </c>
     </row>
     <row r="34">
